--- a/src/test/resources/people_import.xlsx
+++ b/src/test/resources/people_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris.welch/workspace/personal/scoutsevents/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19775E48-04E8-A04A-A839-8720336366AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF7F31D-6C82-AE46-A371-18C4D0178B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
   <si>
     <t>First Name</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>12 / 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None </t>
   </si>
   <si>
     <t>12 / 04</t>
@@ -333,6 +330,33 @@
   <si>
     <t>joe.bloggs@msn.com</t>
   </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Test6</t>
+  </si>
+  <si>
+    <t>Test7</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
 </sst>
 </file>
 
@@ -458,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -498,6 +522,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,13 +530,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -731,7 +749,7 @@
   <dimension ref="A1:Z1066"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -778,10 +796,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -789,20 +807,20 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>92</v>
+      <c r="E2" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -810,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -818,13 +836,19 @@
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>93</v>
+      <c r="E3" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -845,10 +869,10 @@
     </row>
     <row r="4" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -856,3024 +880,3024 @@
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>96</v>
+      <c r="E4" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-    </row>
-    <row r="8" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-    </row>
-    <row r="10" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-    </row>
-    <row r="21" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-    </row>
-    <row r="22" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-    </row>
-    <row r="30" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-    </row>
-    <row r="37" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-    </row>
-    <row r="39" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-    </row>
-    <row r="40" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-    </row>
-    <row r="41" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-    </row>
-    <row r="42" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-    </row>
-    <row r="43" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-    </row>
-    <row r="44" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-    </row>
-    <row r="45" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-    </row>
-    <row r="47" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-    </row>
-    <row r="49" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-    </row>
-    <row r="50" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-    </row>
-    <row r="51" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-    </row>
-    <row r="52" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-    </row>
-    <row r="53" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-    </row>
-    <row r="54" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-    </row>
-    <row r="55" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-    </row>
-    <row r="56" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-      <c r="X56" s="25"/>
-      <c r="Y56" s="25"/>
-      <c r="Z56" s="25"/>
-    </row>
-    <row r="57" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="29"/>
-    </row>
-    <row r="58" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-    </row>
-    <row r="59" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="25"/>
-      <c r="U59" s="25"/>
-      <c r="V59" s="25"/>
-      <c r="W59" s="25"/>
-      <c r="X59" s="25"/>
-      <c r="Y59" s="25"/>
-      <c r="Z59" s="25"/>
-    </row>
-    <row r="60" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-    </row>
-    <row r="61" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="25"/>
-      <c r="V61" s="25"/>
-      <c r="W61" s="25"/>
-      <c r="X61" s="25"/>
-      <c r="Y61" s="25"/>
-      <c r="Z61" s="25"/>
-    </row>
-    <row r="62" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-    </row>
-    <row r="63" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-    </row>
-    <row r="64" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-    </row>
-    <row r="65" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="25"/>
-      <c r="U65" s="25"/>
-      <c r="V65" s="25"/>
-      <c r="W65" s="25"/>
-      <c r="X65" s="25"/>
-      <c r="Y65" s="25"/>
-      <c r="Z65" s="25"/>
-    </row>
-    <row r="66" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-    </row>
-    <row r="67" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-    </row>
-    <row r="68" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="I68" s="25"/>
-    </row>
-    <row r="69" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-    </row>
-    <row r="70" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-    </row>
-    <row r="71" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-    </row>
-    <row r="72" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-    </row>
-    <row r="73" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-    </row>
-    <row r="74" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-    </row>
-    <row r="75" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-    </row>
-    <row r="76" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-    </row>
-    <row r="77" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-    </row>
-    <row r="78" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-    </row>
-    <row r="79" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-    </row>
-    <row r="80" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-    </row>
-    <row r="81" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-    </row>
-    <row r="82" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-    </row>
-    <row r="83" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="25"/>
-      <c r="R83" s="25"/>
-      <c r="S83" s="25"/>
-      <c r="T83" s="25"/>
-      <c r="U83" s="25"/>
-      <c r="V83" s="25"/>
-      <c r="W83" s="25"/>
-      <c r="X83" s="25"/>
-      <c r="Y83" s="25"/>
-      <c r="Z83" s="25"/>
-    </row>
-    <row r="84" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-    </row>
-    <row r="85" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-    </row>
-    <row r="86" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-    </row>
-    <row r="87" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-    </row>
-    <row r="88" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-    </row>
-    <row r="89" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-    </row>
-    <row r="90" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-    </row>
-    <row r="91" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="25"/>
-      <c r="P91" s="25"/>
-      <c r="Q91" s="25"/>
-      <c r="R91" s="25"/>
-      <c r="S91" s="25"/>
-      <c r="T91" s="25"/>
-      <c r="U91" s="25"/>
-      <c r="V91" s="25"/>
-      <c r="W91" s="25"/>
-      <c r="X91" s="25"/>
-      <c r="Y91" s="25"/>
-      <c r="Z91" s="25"/>
-    </row>
-    <row r="92" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="29"/>
-      <c r="N92" s="29"/>
-      <c r="O92" s="29"/>
-      <c r="P92" s="29"/>
-      <c r="Q92" s="29"/>
-      <c r="R92" s="29"/>
-      <c r="S92" s="29"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="29"/>
-      <c r="V92" s="29"/>
-      <c r="W92" s="29"/>
-      <c r="X92" s="29"/>
-      <c r="Y92" s="29"/>
-      <c r="Z92" s="29"/>
-    </row>
-    <row r="93" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="25"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="25"/>
-      <c r="O93" s="25"/>
-      <c r="P93" s="25"/>
-      <c r="Q93" s="25"/>
-      <c r="R93" s="25"/>
-      <c r="S93" s="25"/>
-      <c r="T93" s="25"/>
-      <c r="U93" s="25"/>
-      <c r="V93" s="25"/>
-      <c r="W93" s="25"/>
-      <c r="X93" s="25"/>
-      <c r="Y93" s="25"/>
-      <c r="Z93" s="25"/>
-    </row>
-    <row r="94" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-    </row>
-    <row r="95" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="29"/>
-      <c r="T95" s="29"/>
-      <c r="U95" s="29"/>
-      <c r="V95" s="29"/>
-      <c r="W95" s="29"/>
-      <c r="X95" s="29"/>
-      <c r="Y95" s="29"/>
-      <c r="Z95" s="29"/>
-    </row>
-    <row r="96" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-    </row>
-    <row r="97" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-    </row>
-    <row r="98" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-    </row>
-    <row r="99" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-    </row>
-    <row r="100" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-    </row>
-    <row r="101" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-    </row>
-    <row r="102" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="29"/>
-      <c r="N102" s="29"/>
-      <c r="O102" s="29"/>
-      <c r="P102" s="29"/>
-      <c r="Q102" s="29"/>
-      <c r="R102" s="29"/>
-      <c r="S102" s="29"/>
-      <c r="T102" s="29"/>
-      <c r="U102" s="29"/>
-      <c r="V102" s="29"/>
-      <c r="W102" s="29"/>
-      <c r="X102" s="29"/>
-      <c r="Y102" s="29"/>
-      <c r="Z102" s="29"/>
-    </row>
-    <row r="103" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="29"/>
-      <c r="N103" s="29"/>
-      <c r="O103" s="29"/>
-      <c r="P103" s="29"/>
-      <c r="Q103" s="29"/>
-      <c r="R103" s="29"/>
-      <c r="S103" s="29"/>
-      <c r="T103" s="29"/>
-      <c r="U103" s="29"/>
-      <c r="V103" s="29"/>
-      <c r="W103" s="29"/>
-      <c r="X103" s="29"/>
-      <c r="Y103" s="29"/>
-      <c r="Z103" s="29"/>
-    </row>
-    <row r="104" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-    </row>
-    <row r="105" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-    </row>
-    <row r="106" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-    </row>
-    <row r="107" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-    </row>
-    <row r="108" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-    </row>
-    <row r="109" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="27"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-    </row>
-    <row r="110" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="27"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-    </row>
-    <row r="111" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
-      <c r="I111" s="25"/>
-    </row>
-    <row r="112" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-    </row>
-    <row r="113" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-    </row>
-    <row r="114" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="25"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-    </row>
-    <row r="115" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="29"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="29"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="29"/>
-      <c r="L115" s="29"/>
-      <c r="M115" s="29"/>
-      <c r="N115" s="29"/>
-      <c r="O115" s="29"/>
-      <c r="P115" s="29"/>
-      <c r="Q115" s="29"/>
-      <c r="R115" s="29"/>
-      <c r="S115" s="29"/>
-      <c r="T115" s="29"/>
-      <c r="U115" s="29"/>
-      <c r="V115" s="29"/>
-      <c r="W115" s="29"/>
-      <c r="X115" s="29"/>
-      <c r="Y115" s="29"/>
-      <c r="Z115" s="29"/>
-    </row>
-    <row r="116" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="25"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="I116" s="25"/>
-    </row>
-    <row r="117" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="25"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
-    </row>
-    <row r="118" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-    </row>
-    <row r="119" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="25"/>
-    </row>
-    <row r="120" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="25"/>
-    </row>
-    <row r="121" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
-    </row>
-    <row r="122" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-    </row>
-    <row r="123" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="25"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-    </row>
-    <row r="124" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="25"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25"/>
-      <c r="I124" s="25"/>
-    </row>
-    <row r="125" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="25"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="25"/>
-      <c r="I125" s="25"/>
-    </row>
-    <row r="126" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-    </row>
-    <row r="127" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="25"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="25"/>
-      <c r="I127" s="25"/>
-    </row>
-    <row r="128" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-    </row>
-    <row r="129" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="27"/>
-      <c r="B129" s="27"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-    </row>
-    <row r="130" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="27"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="27"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-    </row>
-    <row r="131" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="27"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="25"/>
-      <c r="K131" s="25"/>
-      <c r="L131" s="25"/>
-      <c r="M131" s="25"/>
-      <c r="N131" s="25"/>
-      <c r="O131" s="25"/>
-      <c r="P131" s="25"/>
-      <c r="Q131" s="25"/>
-      <c r="R131" s="25"/>
-      <c r="S131" s="25"/>
-      <c r="T131" s="25"/>
-      <c r="U131" s="25"/>
-      <c r="V131" s="25"/>
-      <c r="W131" s="25"/>
-      <c r="X131" s="25"/>
-      <c r="Y131" s="25"/>
-      <c r="Z131" s="25"/>
-    </row>
-    <row r="132" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-    </row>
-    <row r="133" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="27"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-    </row>
-    <row r="134" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="27"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="25"/>
-      <c r="K134" s="25"/>
-      <c r="L134" s="25"/>
-      <c r="M134" s="25"/>
-      <c r="N134" s="25"/>
-      <c r="O134" s="25"/>
-      <c r="P134" s="25"/>
-      <c r="Q134" s="25"/>
-      <c r="R134" s="25"/>
-      <c r="S134" s="25"/>
-      <c r="T134" s="25"/>
-      <c r="U134" s="25"/>
-      <c r="V134" s="25"/>
-      <c r="W134" s="25"/>
-      <c r="X134" s="25"/>
-      <c r="Y134" s="25"/>
-      <c r="Z134" s="25"/>
-    </row>
-    <row r="135" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="28"/>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="28"/>
-      <c r="J135" s="29"/>
-      <c r="K135" s="29"/>
-      <c r="L135" s="29"/>
-      <c r="M135" s="29"/>
-      <c r="N135" s="29"/>
-      <c r="O135" s="29"/>
-      <c r="P135" s="29"/>
-      <c r="Q135" s="29"/>
-      <c r="R135" s="29"/>
-      <c r="S135" s="29"/>
-      <c r="T135" s="29"/>
-      <c r="U135" s="29"/>
-      <c r="V135" s="29"/>
-      <c r="W135" s="29"/>
-      <c r="X135" s="29"/>
-      <c r="Y135" s="29"/>
-      <c r="Z135" s="29"/>
-    </row>
-    <row r="136" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="27"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-    </row>
-    <row r="137" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="27"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-    </row>
-    <row r="138" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="27"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-    </row>
-    <row r="139" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
-    </row>
-    <row r="140" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
-    </row>
-    <row r="141" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="27"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="27"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-    </row>
-    <row r="142" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="27"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-    </row>
-    <row r="143" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="25"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="25"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="25"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="25"/>
-      <c r="H143" s="25"/>
-      <c r="I143" s="25"/>
-    </row>
-    <row r="144" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
-    </row>
-    <row r="145" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-    </row>
-    <row r="146" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="27"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="27"/>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
-    </row>
-    <row r="147" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-    </row>
-    <row r="148" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="25"/>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="25"/>
-      <c r="F148" s="25"/>
-      <c r="G148" s="25"/>
-      <c r="H148" s="25"/>
-      <c r="I148" s="25"/>
-    </row>
-    <row r="149" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="27"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-    </row>
-    <row r="150" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="25"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="25"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="25"/>
-      <c r="H150" s="25"/>
-      <c r="I150" s="25"/>
-    </row>
-    <row r="151" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="27"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="27"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-    </row>
-    <row r="152" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="27"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="27"/>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
-      <c r="H152" s="27"/>
-      <c r="I152" s="27"/>
-    </row>
-    <row r="153" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="25"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="25"/>
-      <c r="F153" s="25"/>
-      <c r="G153" s="25"/>
-      <c r="H153" s="25"/>
-      <c r="I153" s="25"/>
-    </row>
-    <row r="154" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="25"/>
-      <c r="B154" s="25"/>
-      <c r="C154" s="25"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="25"/>
-      <c r="F154" s="25"/>
-      <c r="G154" s="25"/>
-      <c r="H154" s="25"/>
-      <c r="I154" s="25"/>
-    </row>
-    <row r="155" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="25"/>
-      <c r="B155" s="25"/>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25"/>
-      <c r="I155" s="25"/>
-    </row>
-    <row r="156" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="27"/>
-      <c r="B156" s="27"/>
-      <c r="C156" s="27"/>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="27"/>
-    </row>
-    <row r="157" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="25"/>
-      <c r="B157" s="25"/>
-      <c r="C157" s="25"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="25"/>
-      <c r="F157" s="25"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="25"/>
-      <c r="I157" s="25"/>
-    </row>
-    <row r="158" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="25"/>
-      <c r="B158" s="25"/>
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="25"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="25"/>
-      <c r="H158" s="25"/>
-      <c r="I158" s="25"/>
-    </row>
-    <row r="159" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="25"/>
-      <c r="B159" s="25"/>
-      <c r="C159" s="25"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="25"/>
-      <c r="F159" s="25"/>
-      <c r="G159" s="25"/>
-      <c r="H159" s="25"/>
-      <c r="I159" s="25"/>
-    </row>
-    <row r="160" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="25"/>
-      <c r="B160" s="25"/>
-      <c r="C160" s="25"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
-      <c r="F160" s="25"/>
-      <c r="G160" s="25"/>
-      <c r="H160" s="25"/>
-      <c r="I160" s="25"/>
-    </row>
-    <row r="161" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="25"/>
-      <c r="B161" s="25"/>
-      <c r="C161" s="25"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="25"/>
-      <c r="F161" s="25"/>
-      <c r="G161" s="25"/>
-      <c r="H161" s="25"/>
-      <c r="I161" s="25"/>
-    </row>
-    <row r="162" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="25"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="25"/>
-      <c r="D162" s="25"/>
-      <c r="E162" s="25"/>
-      <c r="F162" s="25"/>
-      <c r="G162" s="25"/>
-      <c r="I162" s="25"/>
-    </row>
-    <row r="163" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="25"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="25"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="25"/>
-      <c r="F163" s="25"/>
-      <c r="G163" s="25"/>
-      <c r="H163" s="25"/>
-      <c r="I163" s="25"/>
-    </row>
-    <row r="164" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="25"/>
-      <c r="B164" s="25"/>
-      <c r="C164" s="25"/>
-      <c r="D164" s="25"/>
-      <c r="E164" s="25"/>
-      <c r="F164" s="25"/>
-      <c r="G164" s="25"/>
-      <c r="H164" s="25"/>
-      <c r="I164" s="25"/>
-    </row>
-    <row r="165" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="25"/>
-      <c r="B165" s="25"/>
-      <c r="C165" s="25"/>
-      <c r="D165" s="25"/>
-      <c r="E165" s="25"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="25"/>
-      <c r="H165" s="25"/>
-      <c r="I165" s="25"/>
-    </row>
-    <row r="166" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="25"/>
-      <c r="B166" s="25"/>
-      <c r="C166" s="25"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="25"/>
-      <c r="F166" s="25"/>
-      <c r="G166" s="25"/>
-      <c r="H166" s="25"/>
-      <c r="I166" s="25"/>
-    </row>
-    <row r="167" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="25"/>
-      <c r="B167" s="25"/>
-      <c r="C167" s="25"/>
-      <c r="D167" s="25"/>
-      <c r="E167" s="25"/>
-      <c r="F167" s="25"/>
-      <c r="G167" s="25"/>
-      <c r="H167" s="25"/>
-      <c r="I167" s="25"/>
-    </row>
-    <row r="168" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="25"/>
-      <c r="B168" s="25"/>
-      <c r="C168" s="25"/>
-      <c r="D168" s="25"/>
-      <c r="E168" s="25"/>
-      <c r="F168" s="25"/>
-      <c r="G168" s="25"/>
-      <c r="H168" s="25"/>
-      <c r="I168" s="25"/>
-    </row>
-    <row r="169" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="25"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="25"/>
-      <c r="D169" s="25"/>
-      <c r="E169" s="25"/>
-      <c r="F169" s="25"/>
-      <c r="G169" s="25"/>
-      <c r="H169" s="25"/>
-      <c r="I169" s="25"/>
-    </row>
-    <row r="170" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="25"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="25"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="25"/>
-      <c r="F170" s="25"/>
-      <c r="G170" s="25"/>
-      <c r="H170" s="25"/>
-      <c r="I170" s="25"/>
-    </row>
-    <row r="171" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="25"/>
-      <c r="B171" s="25"/>
-      <c r="C171" s="25"/>
-      <c r="D171" s="25"/>
-      <c r="E171" s="25"/>
-      <c r="F171" s="25"/>
-      <c r="G171" s="25"/>
-      <c r="H171" s="25"/>
-      <c r="I171" s="25"/>
-    </row>
-    <row r="172" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="25"/>
-      <c r="B172" s="25"/>
-      <c r="C172" s="25"/>
-      <c r="D172" s="25"/>
-      <c r="E172" s="25"/>
-      <c r="F172" s="25"/>
-      <c r="G172" s="25"/>
-      <c r="H172" s="25"/>
-      <c r="I172" s="25"/>
-    </row>
-    <row r="173" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="25"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="25"/>
-      <c r="D173" s="25"/>
-      <c r="E173" s="25"/>
-      <c r="F173" s="25"/>
-      <c r="G173" s="25"/>
-      <c r="H173" s="25"/>
-      <c r="I173" s="25"/>
-    </row>
-    <row r="174" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="25"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="25"/>
-      <c r="D174" s="25"/>
-      <c r="E174" s="25"/>
-      <c r="F174" s="25"/>
-      <c r="G174" s="25"/>
-      <c r="H174" s="25"/>
-      <c r="I174" s="25"/>
-    </row>
-    <row r="175" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="25"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="25"/>
-      <c r="D175" s="25"/>
-      <c r="E175" s="25"/>
-      <c r="F175" s="25"/>
-      <c r="G175" s="25"/>
-      <c r="H175" s="25"/>
-      <c r="I175" s="25"/>
-    </row>
-    <row r="176" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="25"/>
-      <c r="B176" s="25"/>
-      <c r="C176" s="25"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="25"/>
-      <c r="F176" s="25"/>
-      <c r="G176" s="25"/>
-      <c r="H176" s="25"/>
-      <c r="I176" s="25"/>
-    </row>
-    <row r="177" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="25"/>
-      <c r="B177" s="25"/>
-      <c r="C177" s="25"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
-      <c r="F177" s="25"/>
-      <c r="G177" s="25"/>
-      <c r="H177" s="25"/>
-      <c r="I177" s="25"/>
-    </row>
-    <row r="178" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="25"/>
-      <c r="B178" s="25"/>
-      <c r="C178" s="25"/>
-      <c r="D178" s="25"/>
-      <c r="E178" s="25"/>
-      <c r="F178" s="25"/>
-      <c r="G178" s="25"/>
-      <c r="H178" s="25"/>
-      <c r="I178" s="25"/>
-    </row>
-    <row r="179" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="25"/>
-      <c r="B179" s="25"/>
-      <c r="C179" s="25"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="25"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="25"/>
-      <c r="I179" s="25"/>
-    </row>
-    <row r="180" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="25"/>
-      <c r="B180" s="25"/>
-      <c r="C180" s="25"/>
-      <c r="D180" s="25"/>
-      <c r="E180" s="25"/>
-      <c r="F180" s="25"/>
-      <c r="G180" s="25"/>
-      <c r="H180" s="25"/>
-      <c r="I180" s="25"/>
-    </row>
-    <row r="181" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="25"/>
-      <c r="B181" s="25"/>
-      <c r="C181" s="25"/>
-      <c r="D181" s="25"/>
-      <c r="E181" s="25"/>
-      <c r="F181" s="25"/>
-      <c r="G181" s="25"/>
-      <c r="H181" s="25"/>
-      <c r="I181" s="25"/>
-    </row>
-    <row r="182" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="25"/>
-      <c r="B182" s="25"/>
-      <c r="C182" s="25"/>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25"/>
-      <c r="F182" s="25"/>
-      <c r="G182" s="25"/>
-      <c r="H182" s="25"/>
-      <c r="I182" s="25"/>
-    </row>
-    <row r="183" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="25"/>
-      <c r="B183" s="25"/>
-      <c r="C183" s="25"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="25"/>
-      <c r="F183" s="25"/>
-      <c r="G183" s="25"/>
-      <c r="H183" s="25"/>
-      <c r="I183" s="25"/>
-    </row>
-    <row r="184" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="25"/>
-      <c r="B184" s="25"/>
-      <c r="C184" s="25"/>
-      <c r="D184" s="25"/>
-      <c r="E184" s="25"/>
-      <c r="F184" s="25"/>
-      <c r="G184" s="25"/>
-      <c r="H184" s="25"/>
-      <c r="I184" s="25"/>
-    </row>
-    <row r="185" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="30"/>
-      <c r="B185" s="30"/>
-      <c r="C185" s="30"/>
-      <c r="D185" s="30"/>
-      <c r="E185" s="30"/>
-      <c r="F185" s="30"/>
-      <c r="G185" s="30"/>
-      <c r="H185" s="30"/>
-      <c r="I185" s="30"/>
-      <c r="J185" s="30"/>
-      <c r="K185" s="30"/>
-      <c r="L185" s="30"/>
-      <c r="M185" s="30"/>
-      <c r="N185" s="30"/>
-      <c r="O185" s="30"/>
-      <c r="P185" s="30"/>
-      <c r="Q185" s="30"/>
-      <c r="R185" s="30"/>
-      <c r="S185" s="30"/>
-      <c r="T185" s="30"/>
-      <c r="U185" s="30"/>
-      <c r="V185" s="30"/>
-      <c r="W185" s="30"/>
-      <c r="X185" s="30"/>
-      <c r="Y185" s="30"/>
-      <c r="Z185" s="30"/>
-    </row>
-    <row r="186" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="25"/>
-      <c r="B186" s="25"/>
-      <c r="C186" s="25"/>
-      <c r="D186" s="25"/>
-      <c r="E186" s="25"/>
-      <c r="F186" s="25"/>
-      <c r="G186" s="25"/>
-      <c r="H186" s="25"/>
-      <c r="I186" s="25"/>
-      <c r="J186" s="25"/>
-      <c r="K186" s="25"/>
-      <c r="L186" s="25"/>
-      <c r="M186" s="25"/>
-      <c r="N186" s="25"/>
-      <c r="O186" s="25"/>
-      <c r="P186" s="25"/>
-      <c r="Q186" s="25"/>
-      <c r="R186" s="25"/>
-      <c r="S186" s="25"/>
-      <c r="T186" s="25"/>
-      <c r="U186" s="25"/>
-      <c r="V186" s="25"/>
-      <c r="W186" s="25"/>
-      <c r="X186" s="25"/>
-      <c r="Y186" s="25"/>
-      <c r="Z186" s="25"/>
-    </row>
-    <row r="187" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="25"/>
-      <c r="B187" s="25"/>
-      <c r="C187" s="25"/>
-      <c r="D187" s="25"/>
-      <c r="E187" s="25"/>
-      <c r="F187" s="25"/>
-      <c r="G187" s="25"/>
-      <c r="H187" s="25"/>
-      <c r="I187" s="25"/>
-    </row>
-    <row r="188" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="25"/>
-      <c r="B188" s="25"/>
-      <c r="C188" s="25"/>
-      <c r="D188" s="25"/>
-      <c r="E188" s="25"/>
-      <c r="F188" s="25"/>
-      <c r="G188" s="25"/>
-      <c r="H188" s="25"/>
-      <c r="I188" s="25"/>
-    </row>
-    <row r="189" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="27"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="27"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
-      <c r="H189" s="27"/>
-      <c r="I189" s="27"/>
-    </row>
-    <row r="190" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="27"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="27"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="27"/>
-      <c r="G190" s="27"/>
-      <c r="H190" s="27"/>
-      <c r="I190" s="27"/>
-    </row>
-    <row r="191" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="30"/>
-      <c r="B191" s="30"/>
-      <c r="C191" s="27"/>
-      <c r="D191" s="30"/>
-      <c r="E191" s="30"/>
-      <c r="F191" s="30"/>
-      <c r="G191" s="30"/>
-      <c r="H191" s="30"/>
-      <c r="I191" s="30"/>
-      <c r="J191" s="30"/>
-      <c r="K191" s="30"/>
-      <c r="L191" s="30"/>
-      <c r="M191" s="30"/>
-      <c r="N191" s="30"/>
-      <c r="O191" s="30"/>
-      <c r="P191" s="30"/>
-      <c r="Q191" s="30"/>
-      <c r="R191" s="30"/>
-      <c r="S191" s="30"/>
-      <c r="T191" s="30"/>
-      <c r="U191" s="30"/>
-      <c r="V191" s="30"/>
-      <c r="W191" s="30"/>
-      <c r="X191" s="30"/>
-      <c r="Y191" s="30"/>
-      <c r="Z191" s="30"/>
-    </row>
-    <row r="192" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="27"/>
-      <c r="B192" s="27"/>
-      <c r="C192" s="27"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
-      <c r="F192" s="27"/>
-      <c r="G192" s="27"/>
-      <c r="H192" s="27"/>
-      <c r="I192" s="27"/>
-    </row>
-    <row r="193" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="27"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="27"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-    </row>
-    <row r="194" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="27"/>
-      <c r="B194" s="27"/>
-      <c r="C194" s="27"/>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="27"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="27"/>
-    </row>
-    <row r="195" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="27"/>
-      <c r="B195" s="27"/>
-      <c r="C195" s="27"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-    </row>
-    <row r="196" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="27"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="27"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="27"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="27"/>
-    </row>
-    <row r="197" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="27"/>
-      <c r="B197" s="27"/>
-      <c r="C197" s="27"/>
-      <c r="D197" s="27"/>
-      <c r="E197" s="27"/>
-      <c r="F197" s="27"/>
-      <c r="G197" s="27"/>
-      <c r="H197" s="27"/>
-      <c r="I197" s="27"/>
-      <c r="J197" s="25"/>
-      <c r="K197" s="25"/>
-      <c r="L197" s="25"/>
-      <c r="M197" s="25"/>
-      <c r="N197" s="25"/>
-      <c r="O197" s="25"/>
-      <c r="P197" s="25"/>
-      <c r="Q197" s="25"/>
-      <c r="R197" s="25"/>
-      <c r="S197" s="25"/>
-      <c r="T197" s="25"/>
-      <c r="U197" s="25"/>
-      <c r="V197" s="25"/>
-      <c r="W197" s="25"/>
-      <c r="X197" s="25"/>
-      <c r="Y197" s="25"/>
-      <c r="Z197" s="25"/>
-    </row>
-    <row r="198" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="27"/>
-      <c r="B198" s="27"/>
-      <c r="C198" s="27"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
-      <c r="F198" s="27"/>
-      <c r="G198" s="27"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="27"/>
-    </row>
-    <row r="199" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="27"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="27"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27"/>
-      <c r="F199" s="27"/>
-      <c r="G199" s="27"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="27"/>
-    </row>
-    <row r="200" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="27"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="27"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="27"/>
-      <c r="G200" s="27"/>
-      <c r="H200" s="27"/>
-      <c r="I200" s="27"/>
-    </row>
-    <row r="201" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="27"/>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="27"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="27"/>
-    </row>
-    <row r="202" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="27"/>
-      <c r="B202" s="27"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
-      <c r="F202" s="27"/>
-      <c r="G202" s="27"/>
-      <c r="H202" s="27"/>
-      <c r="I202" s="27"/>
-    </row>
-    <row r="203" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="27"/>
-      <c r="B203" s="27"/>
-      <c r="C203" s="27"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
-      <c r="F203" s="27"/>
-      <c r="G203" s="27"/>
-      <c r="H203" s="27"/>
-      <c r="I203" s="27"/>
-    </row>
-    <row r="204" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="27"/>
-      <c r="B204" s="27"/>
-      <c r="C204" s="27"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="27"/>
-      <c r="F204" s="27"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="27"/>
-    </row>
-    <row r="205" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="27"/>
-      <c r="B205" s="27"/>
-      <c r="C205" s="27"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="27"/>
-      <c r="F205" s="27"/>
-      <c r="G205" s="27"/>
-      <c r="H205" s="27"/>
-      <c r="I205" s="27"/>
-    </row>
-    <row r="206" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="27"/>
-      <c r="B206" s="27"/>
-      <c r="C206" s="27"/>
-      <c r="D206" s="27"/>
-      <c r="E206" s="27"/>
-      <c r="F206" s="27"/>
-      <c r="G206" s="27"/>
-      <c r="H206" s="27"/>
-      <c r="I206" s="27"/>
-    </row>
-    <row r="207" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="25"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="25"/>
-      <c r="D207" s="25"/>
-      <c r="E207" s="25"/>
-      <c r="F207" s="25"/>
-      <c r="G207" s="25"/>
-      <c r="H207" s="25"/>
-      <c r="I207" s="25"/>
-    </row>
-    <row r="208" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="25"/>
-      <c r="B208" s="25"/>
-      <c r="C208" s="25"/>
-      <c r="D208" s="25"/>
-      <c r="E208" s="25"/>
-      <c r="F208" s="25"/>
-      <c r="G208" s="25"/>
-      <c r="H208" s="25"/>
-      <c r="I208" s="25"/>
-    </row>
-    <row r="209" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="25"/>
-      <c r="B209" s="25"/>
-      <c r="C209" s="25"/>
-      <c r="D209" s="25"/>
-      <c r="E209" s="25"/>
-      <c r="F209" s="25"/>
-      <c r="G209" s="25"/>
-      <c r="H209" s="25"/>
-      <c r="I209" s="25"/>
-    </row>
-    <row r="210" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="25"/>
-      <c r="B210" s="25"/>
-      <c r="C210" s="25"/>
-      <c r="D210" s="25"/>
-      <c r="E210" s="25"/>
-      <c r="F210" s="25"/>
-      <c r="G210" s="25"/>
-      <c r="H210" s="25"/>
-      <c r="I210" s="25"/>
-    </row>
-    <row r="211" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="25"/>
-      <c r="B211" s="25"/>
-      <c r="C211" s="25"/>
-      <c r="D211" s="25"/>
-      <c r="E211" s="25"/>
-      <c r="F211" s="25"/>
-      <c r="G211" s="25"/>
-      <c r="H211" s="25"/>
-      <c r="I211" s="25"/>
-    </row>
-    <row r="212" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="25"/>
-      <c r="B212" s="25"/>
-      <c r="C212" s="25"/>
-      <c r="D212" s="25"/>
-      <c r="E212" s="25"/>
-      <c r="F212" s="25"/>
-      <c r="G212" s="25"/>
-      <c r="H212" s="25"/>
-      <c r="I212" s="25"/>
-    </row>
-    <row r="213" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="25"/>
-      <c r="B213" s="25"/>
-      <c r="C213" s="25"/>
-      <c r="D213" s="25"/>
-      <c r="E213" s="25"/>
-      <c r="F213" s="25"/>
-      <c r="G213" s="25"/>
-      <c r="H213" s="25"/>
-      <c r="I213" s="25"/>
-    </row>
-    <row r="214" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="25"/>
-      <c r="B214" s="25"/>
-      <c r="C214" s="25"/>
-      <c r="D214" s="25"/>
-      <c r="E214" s="25"/>
-      <c r="F214" s="25"/>
-      <c r="G214" s="25"/>
-      <c r="H214" s="25"/>
-      <c r="I214" s="25"/>
-    </row>
-    <row r="215" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="25"/>
-      <c r="B215" s="25"/>
-      <c r="C215" s="25"/>
-      <c r="D215" s="25"/>
-      <c r="E215" s="25"/>
-      <c r="F215" s="25"/>
-      <c r="G215" s="25"/>
-      <c r="H215" s="25"/>
-      <c r="I215" s="25"/>
-    </row>
-    <row r="216" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="25"/>
-      <c r="B216" s="25"/>
-      <c r="C216" s="25"/>
-      <c r="D216" s="25"/>
-      <c r="E216" s="25"/>
-      <c r="F216" s="25"/>
-      <c r="G216" s="25"/>
-      <c r="H216" s="25"/>
-      <c r="I216" s="25"/>
-    </row>
-    <row r="217" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="27"/>
-      <c r="B217" s="27"/>
-      <c r="C217" s="27"/>
-      <c r="D217" s="27"/>
-      <c r="E217" s="27"/>
-      <c r="F217" s="27"/>
-      <c r="G217" s="27"/>
-      <c r="H217" s="27"/>
-      <c r="I217" s="27"/>
-    </row>
-    <row r="218" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="27"/>
-      <c r="B218" s="27"/>
-      <c r="C218" s="27"/>
-      <c r="D218" s="27"/>
-      <c r="E218" s="27"/>
-      <c r="F218" s="27"/>
-      <c r="G218" s="27"/>
-      <c r="H218" s="27"/>
-      <c r="I218" s="27"/>
-    </row>
-    <row r="219" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="27"/>
-      <c r="B219" s="27"/>
-      <c r="C219" s="27"/>
-      <c r="D219" s="27"/>
-      <c r="E219" s="27"/>
-      <c r="F219" s="27"/>
-      <c r="G219" s="27"/>
-      <c r="H219" s="27"/>
-      <c r="I219" s="27"/>
-    </row>
-    <row r="220" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="27"/>
-      <c r="B220" s="27"/>
-      <c r="C220" s="27"/>
-      <c r="D220" s="27"/>
-      <c r="E220" s="27"/>
-      <c r="F220" s="27"/>
-      <c r="G220" s="27"/>
-      <c r="H220" s="27"/>
-      <c r="I220" s="27"/>
-    </row>
-    <row r="221" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="27"/>
-      <c r="B221" s="27"/>
-      <c r="C221" s="27"/>
-      <c r="D221" s="27"/>
-      <c r="E221" s="27"/>
-      <c r="F221" s="27"/>
-      <c r="G221" s="27"/>
-      <c r="H221" s="27"/>
-      <c r="I221" s="27"/>
-    </row>
-    <row r="222" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:9" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+    </row>
+    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+    </row>
+    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+    </row>
+    <row r="57" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+    </row>
+    <row r="58" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+    </row>
+    <row r="60" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+    </row>
+    <row r="62" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+    </row>
+    <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+    </row>
+    <row r="84" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+    </row>
+    <row r="92" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+    </row>
+    <row r="93" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+    </row>
+    <row r="94" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+    </row>
+    <row r="96" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
+    </row>
+    <row r="103" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
+    </row>
+    <row r="104" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
+    </row>
+    <row r="116" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2"/>
+      <c r="V131" s="2"/>
+      <c r="W131" s="2"/>
+      <c r="X131" s="2"/>
+      <c r="Y131" s="2"/>
+      <c r="Z131" s="2"/>
+    </row>
+    <row r="132" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="V134" s="2"/>
+      <c r="W134" s="2"/>
+      <c r="X134" s="2"/>
+      <c r="Y134" s="2"/>
+      <c r="Z134" s="2"/>
+    </row>
+    <row r="135" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
+    </row>
+    <row r="136" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+    </row>
+    <row r="138" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+    </row>
+    <row r="150" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+    </row>
+    <row r="173" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+    </row>
+    <row r="176" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+    </row>
+    <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+    </row>
+    <row r="184" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+    </row>
+    <row r="185" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="6"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+      <c r="M185" s="6"/>
+      <c r="N185" s="6"/>
+      <c r="O185" s="6"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="6"/>
+      <c r="R185" s="6"/>
+      <c r="S185" s="6"/>
+      <c r="T185" s="6"/>
+      <c r="U185" s="6"/>
+      <c r="V185" s="6"/>
+      <c r="W185" s="6"/>
+      <c r="X185" s="6"/>
+      <c r="Y185" s="6"/>
+      <c r="Z185" s="6"/>
+    </row>
+    <row r="186" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="2"/>
+      <c r="V186" s="2"/>
+      <c r="W186" s="2"/>
+      <c r="X186" s="2"/>
+      <c r="Y186" s="2"/>
+      <c r="Z186" s="2"/>
+    </row>
+    <row r="187" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+    </row>
+    <row r="188" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+    </row>
+    <row r="189" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="6"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6"/>
+      <c r="L191" s="6"/>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
+      <c r="R191" s="6"/>
+      <c r="S191" s="6"/>
+      <c r="T191" s="6"/>
+      <c r="U191" s="6"/>
+      <c r="V191" s="6"/>
+      <c r="W191" s="6"/>
+      <c r="X191" s="6"/>
+      <c r="Y191" s="6"/>
+      <c r="Z191" s="6"/>
+    </row>
+    <row r="192" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2"/>
+      <c r="V197" s="2"/>
+      <c r="W197" s="2"/>
+      <c r="X197" s="2"/>
+      <c r="Y197" s="2"/>
+      <c r="Z197" s="2"/>
+    </row>
+    <row r="198" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+    </row>
+    <row r="208" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+    </row>
+    <row r="209" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+    </row>
+    <row r="210" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+    </row>
+    <row r="211" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+    </row>
+    <row r="212" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+    </row>
+    <row r="213" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+    </row>
+    <row r="214" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+    </row>
+    <row r="215" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+    </row>
+    <row r="216" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+    </row>
+    <row r="217" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+    </row>
+    <row r="218" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+    </row>
+    <row r="219" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+    </row>
+    <row r="220" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+    </row>
+    <row r="221" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+    </row>
+    <row r="222" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4550,55 +4574,55 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="F1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="9">
         <v>32</v>
@@ -4627,7 +4651,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="9">
         <v>18</v>
@@ -4654,7 +4678,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="13">
         <v>5</v>
@@ -4675,7 +4699,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="9">
         <v>30</v>
@@ -4702,7 +4726,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
@@ -4727,7 +4751,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="9">
         <v>12</v>
@@ -4754,7 +4778,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="16">
         <v>24</v>
@@ -4779,7 +4803,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="9">
         <v>12</v>
@@ -4806,7 +4830,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -4825,7 +4849,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="9">
         <v>9</v>
@@ -4848,7 +4872,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="9">
         <v>10</v>
@@ -4871,7 +4895,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="9">
         <v>14</v>
@@ -4896,7 +4920,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="9">
         <v>15</v>
@@ -4921,7 +4945,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9">
@@ -5011,14 +5035,14 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="23">
+      <c r="F19" s="24">
         <f>SUM(F18:J18)</f>
         <v>67</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
     </row>
@@ -17794,28 +17818,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="9">
         <v>32</v>
@@ -17830,7 +17854,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="9">
         <v>18</v>
@@ -17845,7 +17869,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="13">
         <v>5</v>
@@ -17861,7 +17885,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="9">
         <v>30</v>
@@ -17876,7 +17900,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="9">
         <v>5</v>
@@ -17891,7 +17915,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="9">
         <v>12</v>
@@ -17906,7 +17930,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="16">
         <v>24</v>
@@ -17921,7 +17945,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="9">
         <v>12</v>
@@ -17936,7 +17960,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="9">
         <v>9</v>
@@ -17951,7 +17975,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="9">
         <v>10</v>
@@ -17966,7 +17990,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="9">
         <v>14</v>
@@ -17981,7 +18005,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="9">
         <v>15</v>
@@ -18022,42 +18046,42 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -18107,16 +18131,16 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -18124,7 +18148,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -18145,19 +18169,19 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -18172,31 +18196,31 @@
         <v>13</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -18217,19 +18241,19 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -18244,24 +18268,24 @@
         <v>13</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>12</v>
@@ -18276,39 +18300,39 @@
         <v>13</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/people_import.xlsx
+++ b/src/test/resources/people_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris.welch/workspace/personal/scoutsevents/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF7F31D-6C82-AE46-A371-18C4D0178B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F9BB58-729E-3347-BBD8-9F7760CAD91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OSM Download" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OSM Download'!$A$1:$Z$221</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
   <si>
     <t>First Name</t>
   </si>
@@ -356,6 +357,12 @@
   </si>
   <si>
     <t>Test9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -749,7 +756,7 @@
   <dimension ref="A1:Z1066"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -839,7 +846,9 @@
       <c r="E3" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>99</v>
       </c>
@@ -884,7 +893,7 @@
         <v>95</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>102</v>

--- a/src/test/resources/people_import.xlsx
+++ b/src/test/resources/people_import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris.welch/workspace/personal/scoutsevents/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a3070294/workspace/personal/scouts/pentland_scouts_events_service/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F9BB58-729E-3347-BBD8-9F7760CAD91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7E5B61-79E0-784E-8BC8-6AC393057A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42400" yWindow="2880" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OSM Download" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Changes" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OSM Download'!$A$1:$Z$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OSM Download'!$A$1:$AA$221</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
   <si>
     <t>First Name</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>SubCamp</t>
+  </si>
+  <si>
+    <t>Blue</t>
   </si>
 </sst>
 </file>
@@ -753,26 +759,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1066"/>
+  <dimension ref="A1:AA1066"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="55.1640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="44.6640625" customWidth="1"/>
-    <col min="8" max="8" width="125" customWidth="1"/>
-    <col min="9" max="9" width="81.33203125" customWidth="1"/>
-    <col min="10" max="26" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="125" customWidth="1"/>
+    <col min="10" max="10" width="81.33203125" customWidth="1"/>
+    <col min="11" max="27" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,25 +790,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
@@ -812,25 +822,28 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -841,24 +854,26 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -875,8 +890,9 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -887,25 +903,28 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -915,8 +934,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -926,8 +946,9 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -937,8 +958,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -948,8 +970,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -959,7 +982,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -976,8 +999,9 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -987,8 +1011,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -998,8 +1023,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1009,8 +1035,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1020,8 +1047,9 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1031,8 +1059,9 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1042,8 +1071,9 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1053,8 +1083,9 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1064,8 +1095,9 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1075,8 +1107,9 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1086,8 +1119,9 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1097,7 +1131,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1114,8 +1148,9 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1142,8 +1177,9 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1153,8 +1189,9 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1164,8 +1201,9 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1175,8 +1213,9 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1186,8 +1225,9 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1197,8 +1237,9 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1208,8 +1249,9 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1219,8 +1261,9 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1247,8 +1290,9 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-    </row>
-    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA29" s="2"/>
+    </row>
+    <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1258,8 +1302,9 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1269,8 +1314,9 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1280,8 +1326,9 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1291,8 +1338,9 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1302,8 +1350,9 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1313,8 +1362,9 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1341,8 +1391,9 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
-    </row>
-    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA36" s="2"/>
+    </row>
+    <row r="37" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1352,8 +1403,9 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1363,8 +1415,9 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1374,8 +1427,9 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1385,8 +1439,9 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1396,8 +1451,9 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1407,8 +1463,9 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1418,8 +1475,9 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1429,8 +1487,9 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1440,8 +1499,9 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1451,8 +1511,9 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1462,8 +1523,9 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1473,8 +1535,9 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1484,8 +1547,9 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1495,8 +1559,9 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1506,8 +1571,9 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1517,8 +1583,9 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1528,8 +1595,9 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1539,8 +1607,9 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1550,8 +1619,9 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1578,8 +1648,9 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
-    </row>
-    <row r="57" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA56" s="2"/>
+    </row>
+    <row r="57" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1606,8 +1677,9 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
-    </row>
-    <row r="58" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA57" s="4"/>
+    </row>
+    <row r="58" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1617,8 +1689,9 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1628,7 +1701,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="2"/>
+      <c r="J59" s="5"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -1645,8 +1718,9 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
-    </row>
-    <row r="60" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA59" s="2"/>
+    </row>
+    <row r="60" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1656,8 +1730,9 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1684,8 +1759,9 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-    </row>
-    <row r="62" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA61" s="2"/>
+    </row>
+    <row r="62" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1695,8 +1771,9 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1706,8 +1783,9 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1717,8 +1795,9 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1728,7 +1807,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="2"/>
+      <c r="J65" s="5"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -1745,8 +1824,9 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
-    </row>
-    <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA65" s="2"/>
+    </row>
+    <row r="66" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1756,8 +1836,9 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1767,8 +1848,9 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1776,9 +1858,10 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1788,8 +1871,9 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1799,8 +1883,9 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1810,8 +1895,9 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1821,8 +1907,9 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1832,8 +1919,9 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1843,8 +1931,9 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1854,8 +1943,9 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1865,8 +1955,9 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -1876,8 +1967,9 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1887,8 +1979,9 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -1898,8 +1991,9 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -1909,8 +2003,9 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1920,8 +2015,9 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1931,8 +2027,9 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -1942,7 +2039,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="2"/>
+      <c r="J83" s="5"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -1959,8 +2056,9 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
-    </row>
-    <row r="84" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA83" s="2"/>
+    </row>
+    <row r="84" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1970,8 +2068,9 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1981,8 +2080,9 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1992,8 +2092,9 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2003,8 +2104,9 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2014,8 +2116,9 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2025,8 +2128,9 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-    </row>
-    <row r="90" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2036,8 +2140,9 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2047,7 +2152,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="2"/>
+      <c r="J91" s="5"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -2064,8 +2169,9 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
-    </row>
-    <row r="92" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA91" s="2"/>
+    </row>
+    <row r="92" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2075,7 +2181,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
-      <c r="J92" s="4"/>
+      <c r="J92" s="3"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -2092,8 +2198,9 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
-    </row>
-    <row r="93" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA92" s="4"/>
+    </row>
+    <row r="93" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2103,7 +2210,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="2"/>
+      <c r="J93" s="5"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -2120,8 +2227,9 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
-    </row>
-    <row r="94" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA93" s="2"/>
+    </row>
+    <row r="94" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -2131,8 +2239,9 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2142,7 +2251,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-      <c r="J95" s="4"/>
+      <c r="J95" s="3"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -2159,8 +2268,9 @@
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
-    </row>
-    <row r="96" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA95" s="4"/>
+    </row>
+    <row r="96" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2170,8 +2280,9 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2181,8 +2292,9 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2192,8 +2304,9 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2203,8 +2316,9 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2214,8 +2328,9 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2225,8 +2340,9 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -2236,7 +2352,7 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="4"/>
+      <c r="J102" s="5"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -2253,8 +2369,9 @@
       <c r="X102" s="4"/>
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
-    </row>
-    <row r="103" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA102" s="4"/>
+    </row>
+    <row r="103" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2281,8 +2398,9 @@
       <c r="X103" s="4"/>
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
-    </row>
-    <row r="104" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA103" s="4"/>
+    </row>
+    <row r="104" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2292,8 +2410,9 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2303,8 +2422,9 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2314,8 +2434,9 @@
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2325,8 +2446,9 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2336,8 +2458,9 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -2347,8 +2470,9 @@
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2358,8 +2482,9 @@
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2367,9 +2492,10 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-      <c r="I111" s="2"/>
-    </row>
-    <row r="112" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H111" s="2"/>
+      <c r="J111" s="2"/>
+    </row>
+    <row r="112" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2379,8 +2505,9 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J112" s="2"/>
+    </row>
+    <row r="113" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -2390,8 +2517,9 @@
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
-    </row>
-    <row r="114" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2401,8 +2529,9 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
-    </row>
-    <row r="115" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2429,8 +2558,9 @@
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
-    </row>
-    <row r="116" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA115" s="4"/>
+    </row>
+    <row r="116" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2438,9 +2568,10 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H116" s="2"/>
+      <c r="J116" s="2"/>
+    </row>
+    <row r="117" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2450,8 +2581,9 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J117" s="2"/>
+    </row>
+    <row r="118" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2461,8 +2593,9 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J118" s="2"/>
+    </row>
+    <row r="119" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2472,8 +2605,9 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J119" s="2"/>
+    </row>
+    <row r="120" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2483,8 +2617,9 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J120" s="2"/>
+    </row>
+    <row r="121" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2494,8 +2629,9 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J121" s="2"/>
+    </row>
+    <row r="122" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2505,8 +2641,9 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J122" s="2"/>
+    </row>
+    <row r="123" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2516,8 +2653,9 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J123" s="2"/>
+    </row>
+    <row r="124" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2527,8 +2665,9 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J124" s="2"/>
+    </row>
+    <row r="125" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2538,8 +2677,9 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J125" s="2"/>
+    </row>
+    <row r="126" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -2549,8 +2689,9 @@
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
-    </row>
-    <row r="127" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2560,8 +2701,9 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J127" s="2"/>
+    </row>
+    <row r="128" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -2571,8 +2713,9 @@
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
-    </row>
-    <row r="129" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -2582,8 +2725,9 @@
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
-    </row>
-    <row r="130" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -2593,8 +2737,9 @@
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
-    </row>
-    <row r="131" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -2604,7 +2749,7 @@
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
-      <c r="J131" s="2"/>
+      <c r="J131" s="5"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -2621,8 +2766,9 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
-    </row>
-    <row r="132" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA131" s="2"/>
+    </row>
+    <row r="132" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -2632,8 +2778,9 @@
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
-    </row>
-    <row r="133" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -2643,8 +2790,9 @@
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
-    </row>
-    <row r="134" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -2654,7 +2802,7 @@
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
-      <c r="J134" s="2"/>
+      <c r="J134" s="5"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
@@ -2671,8 +2819,9 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
-    </row>
-    <row r="135" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA134" s="2"/>
+    </row>
+    <row r="135" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2682,7 +2831,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
-      <c r="J135" s="4"/>
+      <c r="J135" s="3"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
@@ -2699,8 +2848,9 @@
       <c r="X135" s="4"/>
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
-    </row>
-    <row r="136" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA135" s="4"/>
+    </row>
+    <row r="136" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -2710,8 +2860,9 @@
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
-    </row>
-    <row r="137" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -2721,8 +2872,9 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
-    </row>
-    <row r="138" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -2732,8 +2884,9 @@
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-    </row>
-    <row r="139" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -2743,8 +2896,9 @@
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2754,8 +2908,9 @@
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
-    </row>
-    <row r="141" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -2765,8 +2920,9 @@
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
-    </row>
-    <row r="142" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -2776,8 +2932,9 @@
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
-    </row>
-    <row r="143" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J142" s="5"/>
+    </row>
+    <row r="143" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2787,8 +2944,9 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J143" s="2"/>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -2798,8 +2956,9 @@
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144" s="5"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -2809,8 +2968,9 @@
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" s="5"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -2820,8 +2980,9 @@
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146" s="5"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -2831,8 +2992,9 @@
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
-    </row>
-    <row r="148" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J147" s="5"/>
+    </row>
+    <row r="148" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2842,8 +3004,9 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
-    </row>
-    <row r="149" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J148" s="2"/>
+    </row>
+    <row r="149" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -2853,8 +3016,9 @@
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
-    </row>
-    <row r="150" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2864,8 +3028,9 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150" s="2"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -2875,8 +3040,9 @@
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" s="5"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -2886,8 +3052,9 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
-    </row>
-    <row r="153" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J152" s="5"/>
+    </row>
+    <row r="153" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2897,8 +3064,9 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J153" s="2"/>
+    </row>
+    <row r="154" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2908,8 +3076,9 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
-    </row>
-    <row r="155" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J154" s="2"/>
+    </row>
+    <row r="155" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2919,8 +3088,9 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J155" s="2"/>
+    </row>
+    <row r="156" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -2930,8 +3100,9 @@
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
-    </row>
-    <row r="157" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J156" s="5"/>
+    </row>
+    <row r="157" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2941,8 +3112,9 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
-    </row>
-    <row r="158" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J157" s="2"/>
+    </row>
+    <row r="158" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2952,8 +3124,9 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
-    </row>
-    <row r="159" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J158" s="2"/>
+    </row>
+    <row r="159" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2963,8 +3136,9 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
-    </row>
-    <row r="160" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J159" s="2"/>
+    </row>
+    <row r="160" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2974,8 +3148,9 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
-    </row>
-    <row r="161" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J160" s="2"/>
+    </row>
+    <row r="161" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2985,8 +3160,9 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
-    </row>
-    <row r="162" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J161" s="2"/>
+    </row>
+    <row r="162" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2994,9 +3170,10 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
-      <c r="I162" s="2"/>
-    </row>
-    <row r="163" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H162" s="2"/>
+      <c r="J162" s="2"/>
+    </row>
+    <row r="163" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3006,8 +3183,9 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
-    </row>
-    <row r="164" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J163" s="2"/>
+    </row>
+    <row r="164" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3017,8 +3195,9 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
-    </row>
-    <row r="165" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J164" s="2"/>
+    </row>
+    <row r="165" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3028,8 +3207,9 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
-    </row>
-    <row r="166" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J165" s="2"/>
+    </row>
+    <row r="166" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3039,8 +3219,9 @@
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
-    </row>
-    <row r="167" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J166" s="2"/>
+    </row>
+    <row r="167" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3050,8 +3231,9 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
-    </row>
-    <row r="168" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J167" s="2"/>
+    </row>
+    <row r="168" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3061,8 +3243,9 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
-    </row>
-    <row r="169" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J168" s="2"/>
+    </row>
+    <row r="169" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3072,8 +3255,9 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
-    </row>
-    <row r="170" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J169" s="2"/>
+    </row>
+    <row r="170" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3083,8 +3267,9 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
-    </row>
-    <row r="171" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J170" s="2"/>
+    </row>
+    <row r="171" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3094,8 +3279,9 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
-    </row>
-    <row r="172" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J171" s="2"/>
+    </row>
+    <row r="172" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3105,8 +3291,9 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
-    </row>
-    <row r="173" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J172" s="2"/>
+    </row>
+    <row r="173" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3116,8 +3303,9 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
-    </row>
-    <row r="174" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J173" s="2"/>
+    </row>
+    <row r="174" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3127,8 +3315,9 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
-    </row>
-    <row r="175" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J174" s="2"/>
+    </row>
+    <row r="175" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3138,8 +3327,9 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
-    </row>
-    <row r="176" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J175" s="2"/>
+    </row>
+    <row r="176" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3149,8 +3339,9 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
-    </row>
-    <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J176" s="2"/>
+    </row>
+    <row r="177" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -3160,8 +3351,9 @@
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
-    </row>
-    <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J177" s="2"/>
+    </row>
+    <row r="178" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -3171,8 +3363,9 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
-    </row>
-    <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J178" s="2"/>
+    </row>
+    <row r="179" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -3182,8 +3375,9 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
-    </row>
-    <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J179" s="2"/>
+    </row>
+    <row r="180" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3193,8 +3387,9 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
-    </row>
-    <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J180" s="2"/>
+    </row>
+    <row r="181" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3204,8 +3399,9 @@
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
-    </row>
-    <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J181" s="2"/>
+    </row>
+    <row r="182" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3215,8 +3411,9 @@
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
-    </row>
-    <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J182" s="2"/>
+    </row>
+    <row r="183" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3226,8 +3423,9 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
-    </row>
-    <row r="184" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J183" s="2"/>
+    </row>
+    <row r="184" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3237,8 +3435,9 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
-    </row>
-    <row r="185" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J184" s="2"/>
+    </row>
+    <row r="185" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -3265,8 +3464,9 @@
       <c r="X185" s="6"/>
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
-    </row>
-    <row r="186" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA185" s="6"/>
+    </row>
+    <row r="186" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -3293,8 +3493,9 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
-    </row>
-    <row r="187" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA186" s="2"/>
+    </row>
+    <row r="187" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3304,8 +3505,9 @@
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
-    </row>
-    <row r="188" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J187" s="2"/>
+    </row>
+    <row r="188" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3315,8 +3517,9 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
-    </row>
-    <row r="189" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J188" s="2"/>
+    </row>
+    <row r="189" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -3326,8 +3529,9 @@
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
-    </row>
-    <row r="190" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J189" s="5"/>
+    </row>
+    <row r="190" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -3337,12 +3541,13 @@
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
-    </row>
-    <row r="191" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J190" s="5"/>
+    </row>
+    <row r="191" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="5"/>
-      <c r="D191" s="6"/>
+      <c r="D191" s="5"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
@@ -3365,8 +3570,9 @@
       <c r="X191" s="6"/>
       <c r="Y191" s="6"/>
       <c r="Z191" s="6"/>
-    </row>
-    <row r="192" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA191" s="6"/>
+    </row>
+    <row r="192" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -3376,8 +3582,9 @@
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
-    </row>
-    <row r="193" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J192" s="5"/>
+    </row>
+    <row r="193" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -3387,8 +3594,9 @@
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
-    </row>
-    <row r="194" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J193" s="5"/>
+    </row>
+    <row r="194" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -3398,8 +3606,9 @@
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
-    </row>
-    <row r="195" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J194" s="5"/>
+    </row>
+    <row r="195" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -3409,8 +3618,9 @@
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
-    </row>
-    <row r="196" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J195" s="5"/>
+    </row>
+    <row r="196" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -3420,8 +3630,9 @@
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
-    </row>
-    <row r="197" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J196" s="5"/>
+    </row>
+    <row r="197" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -3431,7 +3642,7 @@
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
-      <c r="J197" s="2"/>
+      <c r="J197" s="5"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
@@ -3448,8 +3659,9 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
-    </row>
-    <row r="198" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA197" s="2"/>
+    </row>
+    <row r="198" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -3459,8 +3671,9 @@
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
-    </row>
-    <row r="199" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J198" s="5"/>
+    </row>
+    <row r="199" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -3470,8 +3683,9 @@
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
-    </row>
-    <row r="200" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J199" s="5"/>
+    </row>
+    <row r="200" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -3481,8 +3695,9 @@
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
-    </row>
-    <row r="201" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J200" s="5"/>
+    </row>
+    <row r="201" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -3492,8 +3707,9 @@
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
-    </row>
-    <row r="202" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J201" s="5"/>
+    </row>
+    <row r="202" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -3503,8 +3719,9 @@
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
-    </row>
-    <row r="203" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J202" s="5"/>
+    </row>
+    <row r="203" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -3514,8 +3731,9 @@
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
-    </row>
-    <row r="204" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J203" s="5"/>
+    </row>
+    <row r="204" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -3525,8 +3743,9 @@
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
-    </row>
-    <row r="205" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J204" s="5"/>
+    </row>
+    <row r="205" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -3536,8 +3755,9 @@
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
-    </row>
-    <row r="206" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J205" s="5"/>
+    </row>
+    <row r="206" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -3547,8 +3767,9 @@
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
-    </row>
-    <row r="207" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J206" s="5"/>
+    </row>
+    <row r="207" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3558,8 +3779,9 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
-    </row>
-    <row r="208" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J207" s="2"/>
+    </row>
+    <row r="208" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3569,8 +3791,9 @@
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
-    </row>
-    <row r="209" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J208" s="2"/>
+    </row>
+    <row r="209" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3580,8 +3803,9 @@
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
-    </row>
-    <row r="210" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J209" s="2"/>
+    </row>
+    <row r="210" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3591,8 +3815,9 @@
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
-    </row>
-    <row r="211" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J210" s="2"/>
+    </row>
+    <row r="211" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3602,8 +3827,9 @@
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
-    </row>
-    <row r="212" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J211" s="2"/>
+    </row>
+    <row r="212" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3613,8 +3839,9 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
-    </row>
-    <row r="213" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J212" s="2"/>
+    </row>
+    <row r="213" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3624,8 +3851,9 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
-    </row>
-    <row r="214" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J213" s="2"/>
+    </row>
+    <row r="214" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3635,8 +3863,9 @@
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
-    </row>
-    <row r="215" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J214" s="2"/>
+    </row>
+    <row r="215" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3646,8 +3875,9 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
-    </row>
-    <row r="216" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J215" s="2"/>
+    </row>
+    <row r="216" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3657,8 +3887,9 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
-    </row>
-    <row r="217" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J216" s="2"/>
+    </row>
+    <row r="217" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -3668,8 +3899,9 @@
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
-    </row>
-    <row r="218" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J217" s="5"/>
+    </row>
+    <row r="218" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -3679,8 +3911,9 @@
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
-    </row>
-    <row r="219" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J218" s="5"/>
+    </row>
+    <row r="219" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -3690,8 +3923,9 @@
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
-    </row>
-    <row r="220" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J219" s="5"/>
+    </row>
+    <row r="220" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -3701,8 +3935,9 @@
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
-    </row>
-    <row r="221" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J220" s="5"/>
+    </row>
+    <row r="221" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -3712,201 +3947,202 @@
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
-    </row>
-    <row r="222" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J221" s="5"/>
+    </row>
+    <row r="222" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4559,11 +4795,11 @@
     <row r="1065" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1066" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:Z221" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AA221" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{543D5F22-D32D-2F40-9C06-08DB464A3DC9}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{A3E2A82B-9C7B-E346-B1CE-3B49FB9DF51F}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{C1F5CB4D-9CB0-B847-A249-98565601C11A}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{543D5F22-D32D-2F40-9C06-08DB464A3DC9}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{A3E2A82B-9C7B-E346-B1CE-3B49FB9DF51F}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{C1F5CB4D-9CB0-B847-A249-98565601C11A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -18347,4 +18583,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{e9c55f1f-f169-4db7-a264-a5084ccbb748}" enabled="1" method="Standard" siteId="{135e8995-7d3b-4466-844b-a0d62ba5f495}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>